--- a/acm/rules/drools-document-repository-rules.xlsx
+++ b/acm/rules/drools-document-repository-rules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB9461E-43D1-4BD1-AC5F-41A41E174323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E6E83-619E-4EFA-A65E-B62DAF712370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
